--- a/biology/Médecine/1182_en_santé_et_médecine/1182_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1182_en_santé_et_médecine/1182_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1182_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1182_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1182 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1182_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1182_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Averroès est nommé « médecin privé » du sultan Abou Yacoub Youssouf[1].
-Le roi Philippe Auguste fait réaliser la première fontaine publique de Paris, la seconde intra-muros après celle de l'abbaye Saint-Lazare[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Averroès est nommé « médecin privé » du sultan Abou Yacoub Youssouf.
+Le roi Philippe Auguste fait réaliser la première fontaine publique de Paris, la seconde intra-muros après celle de l'abbaye Saint-Lazare.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1182_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1182_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,15 +556,17 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fondation à Besançon, en Franche-Comté, de l'hôpital Saint-Jacques-des-Arènes par le chapitre de la paroisse Sainte-Marie-Madeleine[3].
-En sus de Saint-Jacques-des-Arênes récemment fondé, la ville de Besançon est pourvue de trois établissements charitables également placés sous la protection du pape Lucius II : les hôpitaux Sainte-Brigitte, Saint-Antide et Saint-Antoine[4].
-Fondation à Nogent-le-Rotrou par le seigneur de Mondoucet, d'une maison-Dieu qui est à l'origine de l'actuel centre hospitalier[5].
-Fondation de l'hôpital de Santiago de Cuenca au royaume de Castille en Espagne[6].
-Première mention de la léproserie de Juvisy, au diocèse de Paris, dans un acte de vente du prieur à l'abbé de Saint-Magloire[7].
-1180-1182 : fondation d'un hôpital au Mans, chef lieu de la sénéchaussée du Maine,  par le roi Henri II[8].
-1181-1182 : fondation d'une léproserie de femmes à Lincoln en Angleterre[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fondation à Besançon, en Franche-Comté, de l'hôpital Saint-Jacques-des-Arènes par le chapitre de la paroisse Sainte-Marie-Madeleine.
+En sus de Saint-Jacques-des-Arênes récemment fondé, la ville de Besançon est pourvue de trois établissements charitables également placés sous la protection du pape Lucius II : les hôpitaux Sainte-Brigitte, Saint-Antide et Saint-Antoine.
+Fondation à Nogent-le-Rotrou par le seigneur de Mondoucet, d'une maison-Dieu qui est à l'origine de l'actuel centre hospitalier.
+Fondation de l'hôpital de Santiago de Cuenca au royaume de Castille en Espagne.
+Première mention de la léproserie de Juvisy, au diocèse de Paris, dans un acte de vente du prieur à l'abbé de Saint-Magloire.
+1180-1182 : fondation d'un hôpital au Mans, chef lieu de la sénéchaussée du Maine,  par le roi Henri II.
+1181-1182 : fondation d'une léproserie de femmes à Lincoln en Angleterre.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1182_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1182_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1182-1190 : Fl. Pierre Bertrand, professeur de médecine à Montpellier, « si l'on en croit une inscription qui se trouve […] dans le vestibule de la faculté[9] ».
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1182-1190 : Fl. Pierre Bertrand, professeur de médecine à Montpellier, « si l'on en croit une inscription qui se trouve […] dans le vestibule de la faculté ».
 </t>
         </is>
       </c>
